--- a/tables/xlsx/MonsterCollection.xlsx
+++ b/tables/xlsx/MonsterCollection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\Projects\Planetarium\NineChronicles\tables\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260CE886-EAFC-4771-B117-0EE42F6ECE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14900DC-A5A8-4ABE-A56E-060CA4EF40DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="3735" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,16 +61,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -78,12 +98,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,18 +208,6 @@
     <tableColumn id="1" xr3:uid="{42C8984C-017E-40F3-B9EC-8FF6A707A285}" name="level"/>
     <tableColumn id="2" xr3:uid="{32ED581F-6572-4594-9809-A15E32187613}" name="required_gold"/>
     <tableColumn id="3" xr3:uid="{9CA2D33B-DB33-4A06-8FD9-1D112E3FF60B}" name="reward_id"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B898C8A4-25B8-4C61-BE55-FCC7EE4AE167}" name="MonsterCollectionRewardSheet" displayName="MonsterCollectionRewardSheet" ref="A1:C14" totalsRowShown="0">
-  <autoFilter ref="A1:C14" xr:uid="{B898C8A4-25B8-4C61-BE55-FCC7EE4AE167}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{520CD4C5-982B-4D43-91FE-E3A6CC8FFC22}" name="collection_level"/>
-    <tableColumn id="2" xr3:uid="{C0811EF0-F303-4263-A65D-1ACBA0FE3DDB}" name="item_id"/>
-    <tableColumn id="3" xr3:uid="{1060D83E-3383-4AEF-BEA7-AAC76DD7805F}" name="quantity"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -390,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56284C78-A793-47E9-AC46-EA664F83A8DD}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63916CE6-63D8-460C-A2F2-9BACB705607C}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,164 +601,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>400000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>400000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>500000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>400000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>1265</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>500000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>400000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>8465</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>500000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>400000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>45965</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>500000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>400000</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>120965</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>500000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>400000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
         <v>350965</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>500000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>1120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
